--- a/table.xlsx
+++ b/table.xlsx
@@ -929,154 +929,154 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>481.3762</v>
+        <v>467.3149</v>
       </c>
       <c r="C7">
-        <v>0.5809</v>
+        <v>0.2444</v>
       </c>
       <c r="D7">
-        <v>689.6806</v>
+        <v>264.3463</v>
       </c>
       <c r="E7">
-        <v>0.3392</v>
+        <v>0.3158</v>
       </c>
       <c r="F7">
-        <v>685.2207</v>
+        <v>264.6084</v>
       </c>
       <c r="G7">
-        <v>0.3417</v>
+        <v>0.3147</v>
       </c>
       <c r="H7">
-        <v>2288.479</v>
+        <v>2301.0851</v>
       </c>
       <c r="I7">
-        <v>0.4929</v>
+        <v>0.1173</v>
       </c>
       <c r="J7">
-        <v>3182.4793</v>
+        <v>943.6241</v>
       </c>
       <c r="K7">
-        <v>0.1513</v>
+        <v>0.211</v>
       </c>
       <c r="L7">
-        <v>3187.0923</v>
+        <v>1001.7398</v>
       </c>
       <c r="M7">
-        <v>0.1576</v>
+        <v>0.1983</v>
       </c>
       <c r="N7">
-        <v>1309.9211</v>
+        <v>143.3188</v>
       </c>
       <c r="O7">
-        <v>0.7631</v>
+        <v>0.83</v>
       </c>
       <c r="P7">
-        <v>1359.4148</v>
+        <v>55.3643</v>
       </c>
       <c r="Q7">
-        <v>0.7417</v>
+        <v>0.8837</v>
       </c>
       <c r="R7">
-        <v>1357.1889</v>
+        <v>54.6101</v>
       </c>
       <c r="S7">
-        <v>0.7417</v>
+        <v>0.8825</v>
       </c>
       <c r="T7">
-        <v>5295.995</v>
+        <v>2085.8056</v>
       </c>
       <c r="U7">
-        <v>0.3937</v>
+        <v>0.246</v>
       </c>
       <c r="V7">
-        <v>6329.3908</v>
+        <v>254.561</v>
       </c>
       <c r="W7">
-        <v>0.2835</v>
+        <v>0.5933</v>
       </c>
       <c r="X7">
-        <v>6244.4757</v>
+        <v>326.5992</v>
       </c>
       <c r="Y7">
-        <v>0.283</v>
+        <v>0.5585</v>
       </c>
       <c r="Z7">
-        <v>8536.6525</v>
+        <v>6564.6851</v>
       </c>
       <c r="AA7">
-        <v>0.3709</v>
+        <v>0.091</v>
       </c>
       <c r="AB7">
-        <v>11053.2613</v>
+        <v>1511.4353</v>
       </c>
       <c r="AC7">
-        <v>0.1013</v>
+        <v>0.3032</v>
       </c>
       <c r="AD7">
-        <v>10869.3251</v>
+        <v>1836.7104</v>
       </c>
       <c r="AE7">
-        <v>0.1114</v>
+        <v>0.2845</v>
       </c>
       <c r="AF7">
-        <v>574.0672</v>
+        <v>232.8211</v>
       </c>
       <c r="AG7">
-        <v>0.3642</v>
+        <v>0.3536</v>
       </c>
       <c r="AH7">
-        <v>2558.521</v>
+        <v>1040.564</v>
       </c>
       <c r="AI7">
-        <v>0.2569</v>
+        <v>0.2263</v>
       </c>
       <c r="AJ7">
-        <v>1074.4068</v>
+        <v>198.144</v>
       </c>
       <c r="AK7">
-        <v>0.5561</v>
+        <v>0.4703</v>
       </c>
       <c r="AL7">
-        <v>4654.0788</v>
+        <v>1244.4629</v>
       </c>
       <c r="AM7">
-        <v>0.2347</v>
+        <v>0.2237</v>
       </c>
       <c r="AN7">
-        <v>8251.6901</v>
+        <v>3669.1014</v>
       </c>
       <c r="AO7">
-        <v>0.2177</v>
+        <v>0.1341</v>
       </c>
       <c r="AP7">
-        <v>782.8555</v>
+        <v>141.4149</v>
       </c>
       <c r="AQ7">
-        <v>0.2138</v>
+        <v>0.4609</v>
       </c>
       <c r="AR7">
-        <v>3670.8299</v>
+        <v>424.7176</v>
       </c>
       <c r="AS7">
-        <v>0.09569999999999999</v>
+        <v>0.274</v>
       </c>
       <c r="AT7">
-        <v>1404.7024</v>
+        <v>62.63</v>
       </c>
       <c r="AU7">
-        <v>0.6814</v>
+        <v>0.9059</v>
       </c>
       <c r="AV7">
-        <v>6744.7846</v>
+        <v>107.803</v>
       </c>
       <c r="AW7">
-        <v>0.2944</v>
+        <v>0.8768</v>
       </c>
       <c r="AX7">
-        <v>13428.7285</v>
+        <v>421.0903</v>
       </c>
       <c r="AY7">
-        <v>0.1047</v>
+        <v>0.7421</v>
       </c>
     </row>
     <row r="8" spans="1:51">
@@ -1084,154 +1084,154 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>1095.6633</v>
+        <v>804.1849</v>
       </c>
       <c r="C8">
-        <v>0.54</v>
+        <v>0.104</v>
       </c>
       <c r="D8">
-        <v>1588.4368</v>
+        <v>190.0978</v>
       </c>
       <c r="E8">
-        <v>0.1287</v>
+        <v>0.3619</v>
       </c>
       <c r="F8">
-        <v>1589.2803</v>
+        <v>199.9947</v>
       </c>
       <c r="G8">
-        <v>0.1329</v>
+        <v>0.347</v>
       </c>
       <c r="H8">
-        <v>3951.9571</v>
+        <v>3384.3059</v>
       </c>
       <c r="I8">
-        <v>0.5262</v>
+        <v>0.0275</v>
       </c>
       <c r="J8">
-        <v>5744.9839</v>
+        <v>686.1926999999999</v>
       </c>
       <c r="K8">
-        <v>0.0866</v>
+        <v>0.1972</v>
       </c>
       <c r="L8">
-        <v>5787.1371</v>
+        <v>830.4195999999999</v>
       </c>
       <c r="M8">
-        <v>0.095</v>
+        <v>0.1514</v>
       </c>
       <c r="N8">
-        <v>966.9298</v>
+        <v>66.45910000000001</v>
       </c>
       <c r="O8">
-        <v>0.6983</v>
+        <v>0.8645</v>
       </c>
       <c r="P8">
-        <v>1013.5603</v>
+        <v>10.6596</v>
       </c>
       <c r="Q8">
-        <v>0.6881</v>
+        <v>0.9598</v>
       </c>
       <c r="R8">
-        <v>1013.0004</v>
+        <v>10.2378</v>
       </c>
       <c r="S8">
-        <v>0.6881</v>
+        <v>0.9598</v>
       </c>
       <c r="T8">
-        <v>3983.1346</v>
+        <v>1180.0128</v>
       </c>
       <c r="U8">
-        <v>0.3321</v>
+        <v>0.1753</v>
       </c>
       <c r="V8">
-        <v>4878.686</v>
+        <v>55.3313</v>
       </c>
       <c r="W8">
-        <v>0.1801</v>
+        <v>0.8506</v>
       </c>
       <c r="X8">
-        <v>4855.5526</v>
+        <v>66.33620000000001</v>
       </c>
       <c r="Y8">
-        <v>0.181</v>
+        <v>0.8326</v>
       </c>
       <c r="Z8">
-        <v>6759.6552</v>
+        <v>3777.5281</v>
       </c>
       <c r="AA8">
-        <v>0.3749</v>
+        <v>0.0323</v>
       </c>
       <c r="AB8">
-        <v>9221.4977</v>
+        <v>305.3286</v>
       </c>
       <c r="AC8">
-        <v>0.0646</v>
+        <v>0.5079</v>
       </c>
       <c r="AD8">
-        <v>9075.0188</v>
+        <v>410.4527</v>
       </c>
       <c r="AE8">
-        <v>0.0737</v>
+        <v>0.4288</v>
       </c>
       <c r="AF8">
-        <v>1261.3306</v>
+        <v>162.8813</v>
       </c>
       <c r="AG8">
-        <v>0.2583</v>
+        <v>0.3898</v>
       </c>
       <c r="AH8">
-        <v>4656.9389</v>
+        <v>810.7388</v>
       </c>
       <c r="AI8">
-        <v>0.2315</v>
+        <v>0.1555</v>
       </c>
       <c r="AJ8">
-        <v>785.476</v>
+        <v>98.6288</v>
       </c>
       <c r="AK8">
-        <v>0.5672</v>
+        <v>0.5438</v>
       </c>
       <c r="AL8">
-        <v>3642.0792</v>
+        <v>631.8466</v>
       </c>
       <c r="AM8">
-        <v>0.2512</v>
+        <v>0.1971</v>
       </c>
       <c r="AN8">
-        <v>6887.5947</v>
+        <v>1719.1951</v>
       </c>
       <c r="AO8">
-        <v>0.2265</v>
+        <v>0.104</v>
       </c>
       <c r="AP8">
-        <v>1627.088</v>
+        <v>126.9052</v>
       </c>
       <c r="AQ8">
-        <v>0.09130000000000001</v>
+        <v>0.4668</v>
       </c>
       <c r="AR8">
-        <v>6306.0252</v>
+        <v>655.6682</v>
       </c>
       <c r="AS8">
-        <v>0.0588</v>
+        <v>0.1589</v>
       </c>
       <c r="AT8">
-        <v>1025.7381</v>
+        <v>13.1621</v>
       </c>
       <c r="AU8">
-        <v>0.6446</v>
+        <v>0.9523</v>
       </c>
       <c r="AV8">
-        <v>4976.6694</v>
+        <v>15.5518</v>
       </c>
       <c r="AW8">
-        <v>0.1653</v>
+        <v>0.9497</v>
       </c>
       <c r="AX8">
-        <v>9951.4054</v>
+        <v>158.9608</v>
       </c>
       <c r="AY8">
-        <v>0.0347</v>
+        <v>0.8179999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:51">
@@ -1239,154 +1239,154 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>678.5426</v>
+        <v>552.7033</v>
       </c>
       <c r="C9">
-        <v>0.5148</v>
+        <v>0.1434</v>
       </c>
       <c r="D9">
-        <v>942.9349999999999</v>
+        <v>204.8958</v>
       </c>
       <c r="E9">
-        <v>0.2006</v>
+        <v>0.3394</v>
       </c>
       <c r="F9">
-        <v>942.8436</v>
+        <v>208.9071</v>
       </c>
       <c r="G9">
-        <v>0.2026</v>
+        <v>0.3341</v>
       </c>
       <c r="H9">
-        <v>2998.2927</v>
+        <v>2848.0202</v>
       </c>
       <c r="I9">
-        <v>0.4685</v>
+        <v>0.0305</v>
       </c>
       <c r="J9">
-        <v>4049.6677</v>
+        <v>994.1436</v>
       </c>
       <c r="K9">
-        <v>0.1052</v>
+        <v>0.1525</v>
       </c>
       <c r="L9">
-        <v>4064.6863</v>
+        <v>1087.879</v>
       </c>
       <c r="M9">
-        <v>0.1105</v>
+        <v>0.1303</v>
       </c>
       <c r="N9">
-        <v>1267.1762</v>
+        <v>81.3203</v>
       </c>
       <c r="O9">
-        <v>0.7681</v>
+        <v>0.8715000000000001</v>
       </c>
       <c r="P9">
-        <v>1329.2008</v>
+        <v>11.1704</v>
       </c>
       <c r="Q9">
-        <v>0.7627</v>
+        <v>0.9476</v>
       </c>
       <c r="R9">
-        <v>1329.0597</v>
+        <v>11.1343</v>
       </c>
       <c r="S9">
-        <v>0.7629</v>
+        <v>0.9476</v>
       </c>
       <c r="T9">
-        <v>5183.3878</v>
+        <v>1557.615</v>
       </c>
       <c r="U9">
-        <v>0.4111</v>
+        <v>0.2109</v>
       </c>
       <c r="V9">
-        <v>6605.9277</v>
+        <v>54.9685</v>
       </c>
       <c r="W9">
-        <v>0.3025</v>
+        <v>0.8395</v>
       </c>
       <c r="X9">
-        <v>6565.5597</v>
+        <v>63.2753</v>
       </c>
       <c r="Y9">
-        <v>0.3031</v>
+        <v>0.8117</v>
       </c>
       <c r="Z9">
-        <v>8230.3261</v>
+        <v>4969.3513</v>
       </c>
       <c r="AA9">
-        <v>0.3811</v>
+        <v>0.029</v>
       </c>
       <c r="AB9">
-        <v>12298.0655</v>
+        <v>297.006</v>
       </c>
       <c r="AC9">
-        <v>0.1014</v>
+        <v>0.4715</v>
       </c>
       <c r="AD9">
-        <v>11910.1185</v>
+        <v>458.3928</v>
       </c>
       <c r="AE9">
-        <v>0.1121</v>
+        <v>0.3624</v>
       </c>
       <c r="AF9">
-        <v>751.6029</v>
+        <v>178.6311</v>
       </c>
       <c r="AG9">
-        <v>0.2748</v>
+        <v>0.4373</v>
       </c>
       <c r="AH9">
-        <v>3262.3974</v>
+        <v>1203.3814</v>
       </c>
       <c r="AI9">
-        <v>0.2249</v>
+        <v>0.1345</v>
       </c>
       <c r="AJ9">
-        <v>1018.5876</v>
+        <v>128.785</v>
       </c>
       <c r="AK9">
-        <v>0.592</v>
+        <v>0.5139</v>
       </c>
       <c r="AL9">
-        <v>4639.4603</v>
+        <v>1122.8997</v>
       </c>
       <c r="AM9">
-        <v>0.2306</v>
+        <v>0.1371</v>
       </c>
       <c r="AN9">
-        <v>8195.046</v>
+        <v>3467.254</v>
       </c>
       <c r="AO9">
-        <v>0.2103</v>
+        <v>0.06320000000000001</v>
       </c>
       <c r="AP9">
-        <v>1041.9382</v>
+        <v>88.16970000000001</v>
       </c>
       <c r="AQ9">
-        <v>0.1181</v>
+        <v>0.5475</v>
       </c>
       <c r="AR9">
-        <v>4844.6468</v>
+        <v>419.1117</v>
       </c>
       <c r="AS9">
-        <v>0.0571</v>
+        <v>0.2426</v>
       </c>
       <c r="AT9">
-        <v>1341.2213</v>
+        <v>4.7216</v>
       </c>
       <c r="AU9">
-        <v>0.7332</v>
+        <v>0.9772999999999999</v>
       </c>
       <c r="AV9">
-        <v>6714.8476</v>
+        <v>9.2462</v>
       </c>
       <c r="AW9">
-        <v>0.2692</v>
+        <v>0.9691</v>
       </c>
       <c r="AX9">
-        <v>13373.5558</v>
+        <v>213.789</v>
       </c>
       <c r="AY9">
-        <v>0.076</v>
+        <v>0.8659</v>
       </c>
     </row>
     <row r="10" spans="1:51">
@@ -1394,154 +1394,154 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>788.9347</v>
+        <v>674.5524</v>
       </c>
       <c r="C10">
-        <v>0.5770999999999999</v>
+        <v>0.2849</v>
       </c>
       <c r="D10">
-        <v>1172.5569</v>
+        <v>280.4234</v>
       </c>
       <c r="E10">
-        <v>0.2409</v>
+        <v>0.457</v>
       </c>
       <c r="F10">
-        <v>1165.3084</v>
+        <v>284.6265</v>
       </c>
       <c r="G10">
-        <v>0.2446</v>
+        <v>0.4523</v>
       </c>
       <c r="H10">
-        <v>3326.5297</v>
+        <v>3078.5347</v>
       </c>
       <c r="I10">
-        <v>0.5016</v>
+        <v>0.1176</v>
       </c>
       <c r="J10">
-        <v>4643.5732</v>
+        <v>1044.9109</v>
       </c>
       <c r="K10">
-        <v>0.1255</v>
+        <v>0.2855</v>
       </c>
       <c r="L10">
-        <v>4652.5747</v>
+        <v>1140.8541</v>
       </c>
       <c r="M10">
-        <v>0.1335</v>
+        <v>0.2609</v>
       </c>
       <c r="N10">
-        <v>1155.6673</v>
+        <v>94.8128</v>
       </c>
       <c r="O10">
-        <v>0.7662</v>
+        <v>0.8975</v>
       </c>
       <c r="P10">
-        <v>1224.1061</v>
+        <v>32.7288</v>
       </c>
       <c r="Q10">
-        <v>0.7538</v>
+        <v>0.9611</v>
       </c>
       <c r="R10">
-        <v>1222.7916</v>
+        <v>31.628</v>
       </c>
       <c r="S10">
-        <v>0.7541</v>
+        <v>0.9616</v>
       </c>
       <c r="T10">
-        <v>4698.1717</v>
+        <v>1455.9163</v>
       </c>
       <c r="U10">
-        <v>0.4129</v>
+        <v>0.3386</v>
       </c>
       <c r="V10">
-        <v>5915.9217</v>
+        <v>169.0608</v>
       </c>
       <c r="W10">
-        <v>0.2884</v>
+        <v>0.8734</v>
       </c>
       <c r="X10">
-        <v>5890.7303</v>
+        <v>172.8407</v>
       </c>
       <c r="Y10">
-        <v>0.2895</v>
+        <v>0.8587</v>
       </c>
       <c r="Z10">
-        <v>7593.5905</v>
+        <v>4654.2525</v>
       </c>
       <c r="AA10">
-        <v>0.3971</v>
+        <v>0.1131</v>
       </c>
       <c r="AB10">
-        <v>11117.5197</v>
+        <v>542.3742999999999</v>
       </c>
       <c r="AC10">
-        <v>0.1094</v>
+        <v>0.5758</v>
       </c>
       <c r="AD10">
-        <v>10864.7191</v>
+        <v>652.4626</v>
       </c>
       <c r="AE10">
-        <v>0.1189</v>
+        <v>0.4991</v>
       </c>
       <c r="AF10">
-        <v>950.893</v>
+        <v>183.2613</v>
       </c>
       <c r="AG10">
-        <v>0.3211</v>
+        <v>0.552</v>
       </c>
       <c r="AH10">
-        <v>3758.1562</v>
+        <v>1101.9208</v>
       </c>
       <c r="AI10">
-        <v>0.2453</v>
+        <v>0.2773</v>
       </c>
       <c r="AJ10">
-        <v>963.832</v>
+        <v>144.0232</v>
       </c>
       <c r="AK10">
-        <v>0.6122</v>
+        <v>0.6181</v>
       </c>
       <c r="AL10">
-        <v>4296.7974</v>
+        <v>987.2756000000001</v>
       </c>
       <c r="AM10">
-        <v>0.275</v>
+        <v>0.2903</v>
       </c>
       <c r="AN10">
-        <v>7776.6129</v>
+        <v>2946.8697</v>
       </c>
       <c r="AO10">
-        <v>0.226</v>
+        <v>0.1575</v>
       </c>
       <c r="AP10">
-        <v>1274.8119</v>
+        <v>164.9888</v>
       </c>
       <c r="AQ10">
-        <v>0.1705</v>
+        <v>0.5658</v>
       </c>
       <c r="AR10">
-        <v>5415.2739</v>
+        <v>594.6307</v>
       </c>
       <c r="AS10">
-        <v>0.0873</v>
+        <v>0.3233</v>
       </c>
       <c r="AT10">
-        <v>1263.381</v>
+        <v>37.9974</v>
       </c>
       <c r="AU10">
-        <v>0.6723</v>
+        <v>0.9167999999999999</v>
       </c>
       <c r="AV10">
-        <v>6099.0242</v>
+        <v>62.6592</v>
       </c>
       <c r="AW10">
-        <v>0.2403</v>
+        <v>0.9006</v>
       </c>
       <c r="AX10">
-        <v>12218.998</v>
+        <v>360.6744</v>
       </c>
       <c r="AY10">
-        <v>0.0731</v>
+        <v>0.783</v>
       </c>
     </row>
     <row r="11" spans="1:51">
@@ -1549,154 +1549,154 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>590.9422</v>
+        <v>540.4209</v>
       </c>
       <c r="C11">
-        <v>0.5793</v>
+        <v>0.2582</v>
       </c>
       <c r="D11">
-        <v>871.2699</v>
+        <v>280.1206</v>
       </c>
       <c r="E11">
-        <v>0.2991</v>
+        <v>0.3357</v>
       </c>
       <c r="F11">
-        <v>862.9591</v>
+        <v>279.1492</v>
       </c>
       <c r="G11">
-        <v>0.3032</v>
+        <v>0.3348</v>
       </c>
       <c r="H11">
-        <v>2655.2184</v>
+        <v>2529.6181</v>
       </c>
       <c r="I11">
-        <v>0.4969</v>
+        <v>0.1101</v>
       </c>
       <c r="J11">
-        <v>3721.2362</v>
+        <v>927.6289</v>
       </c>
       <c r="K11">
-        <v>0.1334</v>
+        <v>0.2192</v>
       </c>
       <c r="L11">
-        <v>3730.3444</v>
+        <v>998.5561</v>
       </c>
       <c r="M11">
-        <v>0.1398</v>
+        <v>0.2048</v>
       </c>
       <c r="N11">
-        <v>1249.5422</v>
+        <v>126.0679</v>
       </c>
       <c r="O11">
-        <v>0.7494</v>
+        <v>0.8357</v>
       </c>
       <c r="P11">
-        <v>1307.4635</v>
+        <v>60.3485</v>
       </c>
       <c r="Q11">
-        <v>0.7239</v>
+        <v>0.8779</v>
       </c>
       <c r="R11">
-        <v>1300.3645</v>
+        <v>54.2266</v>
       </c>
       <c r="S11">
-        <v>0.7251</v>
+        <v>0.8784</v>
       </c>
       <c r="T11">
-        <v>5026.1202</v>
+        <v>1905.3439</v>
       </c>
       <c r="U11">
-        <v>0.3946</v>
+        <v>0.2743</v>
       </c>
       <c r="V11">
-        <v>6098.0624</v>
+        <v>224.7684</v>
       </c>
       <c r="W11">
-        <v>0.2677</v>
+        <v>0.632</v>
       </c>
       <c r="X11">
-        <v>6027.3728</v>
+        <v>280.8672</v>
       </c>
       <c r="Y11">
-        <v>0.2682</v>
+        <v>0.6055</v>
       </c>
       <c r="Z11">
-        <v>8166.5874</v>
+        <v>5841.6946</v>
       </c>
       <c r="AA11">
-        <v>0.3736</v>
+        <v>0.0934</v>
       </c>
       <c r="AB11">
-        <v>10811.1752</v>
+        <v>1174.2207</v>
       </c>
       <c r="AC11">
-        <v>0.09669999999999999</v>
+        <v>0.3517</v>
       </c>
       <c r="AD11">
-        <v>10632.0402</v>
+        <v>1432.3783</v>
       </c>
       <c r="AE11">
-        <v>0.1057</v>
+        <v>0.3285</v>
       </c>
       <c r="AF11">
-        <v>703.3629</v>
+        <v>226.0781</v>
       </c>
       <c r="AG11">
-        <v>0.3523</v>
+        <v>0.3988</v>
       </c>
       <c r="AH11">
-        <v>2986.4656</v>
+        <v>1028.8842</v>
       </c>
       <c r="AI11">
-        <v>0.251</v>
+        <v>0.2414</v>
       </c>
       <c r="AJ11">
-        <v>1030.5167</v>
+        <v>186.5727</v>
       </c>
       <c r="AK11">
-        <v>0.5546</v>
+        <v>0.5007</v>
       </c>
       <c r="AL11">
-        <v>4488.9024</v>
+        <v>1138.0811</v>
       </c>
       <c r="AM11">
-        <v>0.2467</v>
+        <v>0.2406</v>
       </c>
       <c r="AN11">
-        <v>7998.7399</v>
+        <v>3284.2119</v>
       </c>
       <c r="AO11">
-        <v>0.2198</v>
+        <v>0.1397</v>
       </c>
       <c r="AP11">
-        <v>969.0347</v>
+        <v>174.8964</v>
       </c>
       <c r="AQ11">
-        <v>0.1963</v>
+        <v>0.4409</v>
       </c>
       <c r="AR11">
-        <v>4254.5133</v>
+        <v>483.3654</v>
       </c>
       <c r="AS11">
-        <v>0.0876</v>
+        <v>0.2652</v>
       </c>
       <c r="AT11">
-        <v>1370.5629</v>
+        <v>88.12309999999999</v>
       </c>
       <c r="AU11">
-        <v>0.621</v>
+        <v>0.8165</v>
       </c>
       <c r="AV11">
-        <v>6457.8478</v>
+        <v>117.2481</v>
       </c>
       <c r="AW11">
-        <v>0.2577</v>
+        <v>0.7895</v>
       </c>
       <c r="AX11">
-        <v>12752.8746</v>
+        <v>374.7136</v>
       </c>
       <c r="AY11">
-        <v>0.0886</v>
+        <v>0.6652</v>
       </c>
     </row>
     <row r="12" spans="1:51">
@@ -1704,154 +1704,154 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>1011.5773</v>
+        <v>786.1873000000001</v>
       </c>
       <c r="C12">
-        <v>0.5787</v>
+        <v>0.2977</v>
       </c>
       <c r="D12">
-        <v>1543.0993</v>
+        <v>330.8731</v>
       </c>
       <c r="E12">
-        <v>0.1815</v>
+        <v>0.4524</v>
       </c>
       <c r="F12">
-        <v>1532.9032</v>
+        <v>335.9964</v>
       </c>
       <c r="G12">
-        <v>0.1893</v>
+        <v>0.4476</v>
       </c>
       <c r="H12">
-        <v>3660.9327</v>
+        <v>3095.6175</v>
       </c>
       <c r="I12">
-        <v>0.5402</v>
+        <v>0.118</v>
       </c>
       <c r="J12">
-        <v>5432.4527</v>
+        <v>729.0205999999999</v>
       </c>
       <c r="K12">
-        <v>0.09760000000000001</v>
+        <v>0.2859</v>
       </c>
       <c r="L12">
-        <v>5454.8592</v>
+        <v>844.1219</v>
       </c>
       <c r="M12">
-        <v>0.1085</v>
+        <v>0.2545</v>
       </c>
       <c r="N12">
-        <v>935.6964</v>
+        <v>107.031</v>
       </c>
       <c r="O12">
-        <v>0.6849</v>
+        <v>0.8662</v>
       </c>
       <c r="P12">
-        <v>1037.7805</v>
+        <v>114.5378</v>
       </c>
       <c r="Q12">
-        <v>0.634</v>
+        <v>0.8837</v>
       </c>
       <c r="R12">
-        <v>1033.0621</v>
+        <v>109.4503</v>
       </c>
       <c r="S12">
-        <v>0.6358</v>
+        <v>0.8866000000000001</v>
       </c>
       <c r="T12">
-        <v>3808.6146</v>
+        <v>1138.1318</v>
       </c>
       <c r="U12">
-        <v>0.3599</v>
+        <v>0.3291</v>
       </c>
       <c r="V12">
-        <v>4707.1883</v>
+        <v>170.2251</v>
       </c>
       <c r="W12">
-        <v>0.1857</v>
+        <v>0.7907</v>
       </c>
       <c r="X12">
-        <v>4694.0891</v>
+        <v>168.1435</v>
       </c>
       <c r="Y12">
-        <v>0.1875</v>
+        <v>0.7848000000000001</v>
       </c>
       <c r="Z12">
-        <v>6523.6134</v>
+        <v>3469.1225</v>
       </c>
       <c r="AA12">
-        <v>0.3878</v>
+        <v>0.126</v>
       </c>
       <c r="AB12">
-        <v>8853.4329</v>
+        <v>367.7046</v>
       </c>
       <c r="AC12">
-        <v>0.0751</v>
+        <v>0.5362</v>
       </c>
       <c r="AD12">
-        <v>8760.5101</v>
+        <v>423.087</v>
       </c>
       <c r="AE12">
-        <v>0.0828</v>
+        <v>0.492</v>
       </c>
       <c r="AF12">
-        <v>1217.7407</v>
+        <v>227.6442</v>
       </c>
       <c r="AG12">
-        <v>0.3061</v>
+        <v>0.5372</v>
       </c>
       <c r="AH12">
-        <v>4377.7971</v>
+        <v>704.4847</v>
       </c>
       <c r="AI12">
-        <v>0.2435</v>
+        <v>0.2977</v>
       </c>
       <c r="AJ12">
-        <v>828.2447</v>
+        <v>191.868</v>
       </c>
       <c r="AK12">
-        <v>0.5666</v>
+        <v>0.6276</v>
       </c>
       <c r="AL12">
-        <v>3570.0464</v>
+        <v>654.7258</v>
       </c>
       <c r="AM12">
-        <v>0.2789</v>
+        <v>0.3303</v>
       </c>
       <c r="AN12">
-        <v>6735.7863</v>
+        <v>1494.0272</v>
       </c>
       <c r="AO12">
-        <v>0.2322</v>
+        <v>0.191</v>
       </c>
       <c r="AP12">
-        <v>1606.5606</v>
+        <v>297.4016</v>
       </c>
       <c r="AQ12">
-        <v>0.1349</v>
+        <v>0.5067</v>
       </c>
       <c r="AR12">
-        <v>5819.3012</v>
+        <v>770.4989</v>
       </c>
       <c r="AS12">
-        <v>0.0731</v>
+        <v>0.263</v>
       </c>
       <c r="AT12">
-        <v>1105.1897</v>
+        <v>180.9373</v>
       </c>
       <c r="AU12">
-        <v>0.5448</v>
+        <v>0.803</v>
       </c>
       <c r="AV12">
-        <v>4804.1648</v>
+        <v>210.7457</v>
       </c>
       <c r="AW12">
-        <v>0.1512</v>
+        <v>0.7876</v>
       </c>
       <c r="AX12">
-        <v>9390.153399999999</v>
+        <v>413.3778</v>
       </c>
       <c r="AY12">
-        <v>0.0416</v>
+        <v>0.6774</v>
       </c>
     </row>
     <row r="13" spans="1:51">
@@ -1859,154 +1859,154 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>967.5271</v>
+        <v>772.3288</v>
       </c>
       <c r="C13">
-        <v>0.5935</v>
+        <v>0.3311</v>
       </c>
       <c r="D13">
-        <v>1507.385</v>
+        <v>385.758</v>
       </c>
       <c r="E13">
-        <v>0.2005</v>
+        <v>0.4502</v>
       </c>
       <c r="F13">
-        <v>1492.7675</v>
+        <v>387.0931</v>
       </c>
       <c r="G13">
-        <v>0.2094</v>
+        <v>0.4488</v>
       </c>
       <c r="H13">
-        <v>3488.6344</v>
+        <v>2964.9892</v>
       </c>
       <c r="I13">
-        <v>0.5457</v>
+        <v>0.1365</v>
       </c>
       <c r="J13">
-        <v>5191.007</v>
+        <v>777.1818</v>
       </c>
       <c r="K13">
-        <v>0.1053</v>
+        <v>0.2902</v>
       </c>
       <c r="L13">
-        <v>5206.4609</v>
+        <v>880.3872</v>
       </c>
       <c r="M13">
-        <v>0.1167</v>
+        <v>0.2641</v>
       </c>
       <c r="N13">
-        <v>969.4646</v>
+        <v>133.8759</v>
       </c>
       <c r="O13">
-        <v>0.6921</v>
+        <v>0.8551</v>
       </c>
       <c r="P13">
-        <v>1105.4712</v>
+        <v>173.5695</v>
       </c>
       <c r="Q13">
-        <v>0.6225000000000001</v>
+        <v>0.8413</v>
       </c>
       <c r="R13">
-        <v>1095.9492</v>
+        <v>163.4371</v>
       </c>
       <c r="S13">
-        <v>0.6262</v>
+        <v>0.8464</v>
       </c>
       <c r="T13">
-        <v>3841.3723</v>
+        <v>1181.3671</v>
       </c>
       <c r="U13">
-        <v>0.3766</v>
+        <v>0.3558</v>
       </c>
       <c r="V13">
-        <v>4781.9295</v>
+        <v>236.1709</v>
       </c>
       <c r="W13">
-        <v>0.1922</v>
+        <v>0.7552</v>
       </c>
       <c r="X13">
-        <v>4766.0065</v>
+        <v>230.1656</v>
       </c>
       <c r="Y13">
-        <v>0.1952</v>
+        <v>0.7531</v>
       </c>
       <c r="Z13">
-        <v>6567.7408</v>
+        <v>3565.3201</v>
       </c>
       <c r="AA13">
-        <v>0.3968</v>
+        <v>0.1416</v>
       </c>
       <c r="AB13">
-        <v>8964.825199999999</v>
+        <v>446.8427</v>
       </c>
       <c r="AC13">
-        <v>0.07969999999999999</v>
+        <v>0.5154</v>
       </c>
       <c r="AD13">
-        <v>8868.1711</v>
+        <v>502.0505</v>
       </c>
       <c r="AE13">
-        <v>0.0881</v>
+        <v>0.4787</v>
       </c>
       <c r="AF13">
-        <v>1185.25</v>
+        <v>265.5256</v>
       </c>
       <c r="AG13">
-        <v>0.3243</v>
+        <v>0.5479000000000001</v>
       </c>
       <c r="AH13">
-        <v>4173.4013</v>
+        <v>731.0473</v>
       </c>
       <c r="AI13">
-        <v>0.2523</v>
+        <v>0.3208</v>
       </c>
       <c r="AJ13">
-        <v>881.8504</v>
+        <v>241.2947</v>
       </c>
       <c r="AK13">
-        <v>0.5466</v>
+        <v>0.6068</v>
       </c>
       <c r="AL13">
-        <v>3625.4351</v>
+        <v>728.046</v>
       </c>
       <c r="AM13">
-        <v>0.2837</v>
+        <v>0.3336</v>
       </c>
       <c r="AN13">
-        <v>6801.436</v>
+        <v>1629.6053</v>
       </c>
       <c r="AO13">
-        <v>0.235</v>
+        <v>0.1933</v>
       </c>
       <c r="AP13">
-        <v>1579.4837</v>
+        <v>362.2816</v>
       </c>
       <c r="AQ13">
-        <v>0.1506</v>
+        <v>0.4885</v>
       </c>
       <c r="AR13">
-        <v>5564.9078</v>
+        <v>809.8625</v>
       </c>
       <c r="AS13">
-        <v>0.07920000000000001</v>
+        <v>0.2692</v>
       </c>
       <c r="AT13">
-        <v>1191.6421</v>
+        <v>259.8492</v>
       </c>
       <c r="AU13">
-        <v>0.4915</v>
+        <v>0.7057</v>
       </c>
       <c r="AV13">
-        <v>4897.2675</v>
+        <v>293.5077</v>
       </c>
       <c r="AW13">
-        <v>0.1459</v>
+        <v>0.6932</v>
       </c>
       <c r="AX13">
-        <v>9525.0566</v>
+        <v>528.1079999999999</v>
       </c>
       <c r="AY13">
-        <v>0.0456</v>
+        <v>0.591</v>
       </c>
     </row>
     <row r="14" spans="1:51">
@@ -2014,154 +2014,154 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>909.9582</v>
+        <v>735.1269</v>
       </c>
       <c r="C14">
-        <v>0.594</v>
+        <v>0.3504</v>
       </c>
       <c r="D14">
-        <v>1419.4763</v>
+        <v>361.9165</v>
       </c>
       <c r="E14">
-        <v>0.2055</v>
+        <v>0.4628</v>
       </c>
       <c r="F14">
-        <v>1407.8658</v>
+        <v>363.2394</v>
       </c>
       <c r="G14">
-        <v>0.213</v>
+        <v>0.4616</v>
       </c>
       <c r="H14">
-        <v>3422.8721</v>
+        <v>2923.195</v>
       </c>
       <c r="I14">
-        <v>0.5377</v>
+        <v>0.1383</v>
       </c>
       <c r="J14">
-        <v>5049.4623</v>
+        <v>791.2323</v>
       </c>
       <c r="K14">
-        <v>0.1067</v>
+        <v>0.2925</v>
       </c>
       <c r="L14">
-        <v>5065.4156</v>
+        <v>890.1724</v>
       </c>
       <c r="M14">
-        <v>0.1171</v>
+        <v>0.269</v>
       </c>
       <c r="N14">
-        <v>974.6929</v>
+        <v>114.4155</v>
       </c>
       <c r="O14">
-        <v>0.7020999999999999</v>
+        <v>0.8753</v>
       </c>
       <c r="P14">
-        <v>1098.2185</v>
+        <v>137.7684</v>
       </c>
       <c r="Q14">
-        <v>0.6331</v>
+        <v>0.8582</v>
       </c>
       <c r="R14">
-        <v>1091.0845</v>
+        <v>129.7746</v>
       </c>
       <c r="S14">
-        <v>0.6358</v>
+        <v>0.8623</v>
       </c>
       <c r="T14">
-        <v>3965.1638</v>
+        <v>1214.6202</v>
       </c>
       <c r="U14">
-        <v>0.3817</v>
+        <v>0.3707</v>
       </c>
       <c r="V14">
-        <v>4945.9142</v>
+        <v>208.4882</v>
       </c>
       <c r="W14">
-        <v>0.2008</v>
+        <v>0.774</v>
       </c>
       <c r="X14">
-        <v>4931.9537</v>
+        <v>204.0992</v>
       </c>
       <c r="Y14">
-        <v>0.2031</v>
+        <v>0.7715</v>
       </c>
       <c r="Z14">
-        <v>6698.1081</v>
+        <v>3687.2316</v>
       </c>
       <c r="AA14">
-        <v>0.3955</v>
+        <v>0.1399</v>
       </c>
       <c r="AB14">
-        <v>9242.8565</v>
+        <v>441.9732</v>
       </c>
       <c r="AC14">
-        <v>0.08110000000000001</v>
+        <v>0.5317</v>
       </c>
       <c r="AD14">
-        <v>9138.6731</v>
+        <v>501.7827</v>
       </c>
       <c r="AE14">
-        <v>0.0892</v>
+        <v>0.4961</v>
       </c>
       <c r="AF14">
-        <v>1118.2005</v>
+        <v>247.1941</v>
       </c>
       <c r="AG14">
-        <v>0.3267</v>
+        <v>0.5797</v>
       </c>
       <c r="AH14">
-        <v>4061.063</v>
+        <v>753.5701</v>
       </c>
       <c r="AI14">
-        <v>0.2501</v>
+        <v>0.3319</v>
       </c>
       <c r="AJ14">
-        <v>879.3434999999999</v>
+        <v>221.6608</v>
       </c>
       <c r="AK14">
-        <v>0.5636</v>
+        <v>0.6387</v>
       </c>
       <c r="AL14">
-        <v>3724.9724</v>
+        <v>761.2696</v>
       </c>
       <c r="AM14">
-        <v>0.2869</v>
+        <v>0.3531</v>
       </c>
       <c r="AN14">
-        <v>6917.0019</v>
+        <v>1800.2726</v>
       </c>
       <c r="AO14">
-        <v>0.2348</v>
+        <v>0.1985</v>
       </c>
       <c r="AP14">
-        <v>1500.3967</v>
+        <v>347.498</v>
       </c>
       <c r="AQ14">
-        <v>0.1519</v>
+        <v>0.4804</v>
       </c>
       <c r="AR14">
-        <v>5479.9163</v>
+        <v>795.9772</v>
       </c>
       <c r="AS14">
-        <v>0.07829999999999999</v>
+        <v>0.2687</v>
       </c>
       <c r="AT14">
-        <v>1189.3443</v>
+        <v>232.5079</v>
       </c>
       <c r="AU14">
-        <v>0.4842</v>
+        <v>0.6828</v>
       </c>
       <c r="AV14">
-        <v>5060.0849</v>
+        <v>269.7177</v>
       </c>
       <c r="AW14">
-        <v>0.1488</v>
+        <v>0.6626</v>
       </c>
       <c r="AX14">
-        <v>9850.760700000001</v>
+        <v>523.0925</v>
       </c>
       <c r="AY14">
-        <v>0.0467</v>
+        <v>0.5573</v>
       </c>
     </row>
     <row r="15" spans="1:51">
@@ -2169,154 +2169,154 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>961.9289</v>
+        <v>732.2859</v>
       </c>
       <c r="C15">
-        <v>0.5824</v>
+        <v>0.3215</v>
       </c>
       <c r="D15">
-        <v>1441.9906</v>
+        <v>251.4471</v>
       </c>
       <c r="E15">
-        <v>0.1953</v>
+        <v>0.5041</v>
       </c>
       <c r="F15">
-        <v>1438.6628</v>
+        <v>259.6009</v>
       </c>
       <c r="G15">
-        <v>0.2011</v>
+        <v>0.4974</v>
       </c>
       <c r="H15">
-        <v>3623.1856</v>
+        <v>3028.6751</v>
       </c>
       <c r="I15">
-        <v>0.5372</v>
+        <v>0.1084</v>
       </c>
       <c r="J15">
-        <v>5345.2619</v>
+        <v>636.1222</v>
       </c>
       <c r="K15">
-        <v>0.0988</v>
+        <v>0.3208</v>
       </c>
       <c r="L15">
-        <v>5376.9246</v>
+        <v>754.9571999999999</v>
       </c>
       <c r="M15">
-        <v>0.1082</v>
+        <v>0.2841</v>
       </c>
       <c r="N15">
-        <v>919.9339</v>
+        <v>78.6665</v>
       </c>
       <c r="O15">
-        <v>0.7006</v>
+        <v>0.8798</v>
       </c>
       <c r="P15">
-        <v>978.365</v>
+        <v>42.8209</v>
       </c>
       <c r="Q15">
-        <v>0.6656</v>
+        <v>0.905</v>
       </c>
       <c r="R15">
-        <v>978.0475</v>
+        <v>42.4807</v>
       </c>
       <c r="S15">
-        <v>0.6659</v>
+        <v>0.9054</v>
       </c>
       <c r="T15">
-        <v>3789.0299</v>
+        <v>1105.938</v>
       </c>
       <c r="U15">
-        <v>0.3647</v>
+        <v>0.3463</v>
       </c>
       <c r="V15">
-        <v>4660.1305</v>
+        <v>90.58540000000001</v>
       </c>
       <c r="W15">
-        <v>0.1979</v>
+        <v>0.83</v>
       </c>
       <c r="X15">
-        <v>4650.6536</v>
+        <v>93.083</v>
       </c>
       <c r="Y15">
-        <v>0.1988</v>
+        <v>0.8247</v>
       </c>
       <c r="Z15">
-        <v>6496.706</v>
+        <v>3430.8589</v>
       </c>
       <c r="AA15">
-        <v>0.3884</v>
+        <v>0.114</v>
       </c>
       <c r="AB15">
-        <v>8825.6399</v>
+        <v>275.4906</v>
       </c>
       <c r="AC15">
-        <v>0.0774</v>
+        <v>0.5966</v>
       </c>
       <c r="AD15">
-        <v>8734.5224</v>
+        <v>336.3227</v>
       </c>
       <c r="AE15">
-        <v>0.0843</v>
+        <v>0.5537</v>
       </c>
       <c r="AF15">
-        <v>1144.2236</v>
+        <v>171.7255</v>
       </c>
       <c r="AG15">
-        <v>0.3049</v>
+        <v>0.5718</v>
       </c>
       <c r="AH15">
-        <v>4319.7922</v>
+        <v>641.9909</v>
       </c>
       <c r="AI15">
-        <v>0.2412</v>
+        <v>0.3169</v>
       </c>
       <c r="AJ15">
-        <v>782.907</v>
+        <v>136.5574</v>
       </c>
       <c r="AK15">
-        <v>0.529</v>
+        <v>0.6247</v>
       </c>
       <c r="AL15">
-        <v>3529.7798</v>
+        <v>592.3375</v>
       </c>
       <c r="AM15">
-        <v>0.2753</v>
+        <v>0.341</v>
       </c>
       <c r="AN15">
-        <v>6700.996</v>
+        <v>1429.0435</v>
       </c>
       <c r="AO15">
-        <v>0.2319</v>
+        <v>0.192</v>
       </c>
       <c r="AP15">
-        <v>1485.3348</v>
+        <v>198.9186</v>
       </c>
       <c r="AQ15">
-        <v>0.1363</v>
+        <v>0.5086000000000001</v>
       </c>
       <c r="AR15">
-        <v>5728.0576</v>
+        <v>654.7225</v>
       </c>
       <c r="AS15">
-        <v>0.0738</v>
+        <v>0.3039</v>
       </c>
       <c r="AT15">
-        <v>1019.1554</v>
+        <v>82.32680000000001</v>
       </c>
       <c r="AU15">
-        <v>0.4841</v>
+        <v>0.7221</v>
       </c>
       <c r="AV15">
-        <v>4737.2958</v>
+        <v>100.7552</v>
       </c>
       <c r="AW15">
-        <v>0.1544</v>
+        <v>0.7435</v>
       </c>
       <c r="AX15">
-        <v>9337.6702</v>
+        <v>288.1158</v>
       </c>
       <c r="AY15">
-        <v>0.0432</v>
+        <v>0.629</v>
       </c>
     </row>
     <row r="16" spans="1:51">
@@ -2324,154 +2324,154 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>1020.9232</v>
+        <v>756.338</v>
       </c>
       <c r="C16">
-        <v>0.5645</v>
+        <v>0.2358</v>
       </c>
       <c r="D16">
-        <v>1517.2769</v>
+        <v>237.0857</v>
       </c>
       <c r="E16">
-        <v>0.1533</v>
+        <v>0.4222</v>
       </c>
       <c r="F16">
-        <v>1515.4007</v>
+        <v>245.5066</v>
       </c>
       <c r="G16">
-        <v>0.1587</v>
+        <v>0.4146</v>
       </c>
       <c r="H16">
-        <v>3763.1426</v>
+        <v>3125.9505</v>
       </c>
       <c r="I16">
-        <v>0.5421</v>
+        <v>0.0699</v>
       </c>
       <c r="J16">
-        <v>5603.3613</v>
+        <v>567.641</v>
       </c>
       <c r="K16">
-        <v>0.0868</v>
+        <v>0.252</v>
       </c>
       <c r="L16">
-        <v>5642.8442</v>
+        <v>697.3476000000001</v>
       </c>
       <c r="M16">
-        <v>0.0965</v>
+        <v>0.2125</v>
       </c>
       <c r="N16">
-        <v>856.0072</v>
+        <v>77.2201</v>
       </c>
       <c r="O16">
-        <v>0.6823</v>
+        <v>0.8564000000000001</v>
       </c>
       <c r="P16">
-        <v>912.9576</v>
+        <v>45.5672</v>
       </c>
       <c r="Q16">
-        <v>0.6455</v>
+        <v>0.8922</v>
       </c>
       <c r="R16">
-        <v>912.5304</v>
+        <v>45.159</v>
       </c>
       <c r="S16">
-        <v>0.6458</v>
+        <v>0.8925999999999999</v>
       </c>
       <c r="T16">
-        <v>3571.3903</v>
+        <v>1042.4884</v>
       </c>
       <c r="U16">
-        <v>0.347</v>
+        <v>0.2735</v>
       </c>
       <c r="V16">
-        <v>4359.1371</v>
+        <v>89.91840000000001</v>
       </c>
       <c r="W16">
-        <v>0.1731</v>
+        <v>0.7989000000000001</v>
       </c>
       <c r="X16">
-        <v>4352.0862</v>
+        <v>91.70910000000001</v>
       </c>
       <c r="Y16">
-        <v>0.174</v>
+        <v>0.7937</v>
       </c>
       <c r="Z16">
-        <v>6247.081</v>
+        <v>3185.1135</v>
       </c>
       <c r="AA16">
-        <v>0.3835</v>
+        <v>0.08019999999999999</v>
       </c>
       <c r="AB16">
-        <v>8322.188899999999</v>
+        <v>245.5398</v>
       </c>
       <c r="AC16">
-        <v>0.0677</v>
+        <v>0.5377</v>
       </c>
       <c r="AD16">
-        <v>8253.7382</v>
+        <v>297.2657</v>
       </c>
       <c r="AE16">
-        <v>0.0745</v>
+        <v>0.4917</v>
       </c>
       <c r="AF16">
-        <v>1199.574</v>
+        <v>171.9833</v>
       </c>
       <c r="AG16">
-        <v>0.2723</v>
+        <v>0.4514</v>
       </c>
       <c r="AH16">
-        <v>4537.431</v>
+        <v>577.8695</v>
       </c>
       <c r="AI16">
-        <v>0.2329</v>
+        <v>0.2287</v>
       </c>
       <c r="AJ16">
-        <v>730.3603000000001</v>
+        <v>124.6766</v>
       </c>
       <c r="AK16">
-        <v>0.4729</v>
+        <v>0.5253</v>
       </c>
       <c r="AL16">
-        <v>3353.2192</v>
+        <v>490.4603</v>
       </c>
       <c r="AM16">
-        <v>0.2575</v>
+        <v>0.2564</v>
       </c>
       <c r="AN16">
-        <v>6470.3774</v>
+        <v>1095.0842</v>
       </c>
       <c r="AO16">
-        <v>0.2293</v>
+        <v>0.1472</v>
       </c>
       <c r="AP16">
-        <v>1550.881</v>
+        <v>190.5246</v>
       </c>
       <c r="AQ16">
-        <v>0.09470000000000001</v>
+        <v>0.3974</v>
       </c>
       <c r="AR16">
-        <v>5929.8639</v>
+        <v>651.2651</v>
       </c>
       <c r="AS16">
-        <v>0.06</v>
+        <v>0.2022</v>
       </c>
       <c r="AT16">
-        <v>956.1691</v>
+        <v>86.9905</v>
       </c>
       <c r="AU16">
-        <v>0.3998</v>
+        <v>0.6313</v>
       </c>
       <c r="AV16">
-        <v>4436.7471</v>
+        <v>96.8956</v>
       </c>
       <c r="AW16">
-        <v>0.1255</v>
+        <v>0.7103</v>
       </c>
       <c r="AX16">
-        <v>8758.364</v>
+        <v>253.1638</v>
       </c>
       <c r="AY16">
-        <v>0.0314</v>
+        <v>0.5998</v>
       </c>
     </row>
     <row r="17" spans="1:51">
@@ -2479,154 +2479,154 @@
         <v>24</v>
       </c>
       <c r="B17">
-        <v>1063.6107</v>
+        <v>763.8416999999999</v>
       </c>
       <c r="C17">
-        <v>0.5561</v>
+        <v>0.2101</v>
       </c>
       <c r="D17">
-        <v>1558.5039</v>
+        <v>216.8907</v>
       </c>
       <c r="E17">
-        <v>0.142</v>
+        <v>0.4163</v>
       </c>
       <c r="F17">
-        <v>1558.3575</v>
+        <v>225.4261</v>
       </c>
       <c r="G17">
-        <v>0.1465</v>
+        <v>0.4073</v>
       </c>
       <c r="H17">
-        <v>3904.4978</v>
+        <v>3300.0151</v>
       </c>
       <c r="I17">
-        <v>0.5516</v>
+        <v>0.0587</v>
       </c>
       <c r="J17">
-        <v>5896.0458</v>
+        <v>547.0673</v>
       </c>
       <c r="K17">
-        <v>0.08500000000000001</v>
+        <v>0.244</v>
       </c>
       <c r="L17">
-        <v>5941.6212</v>
+        <v>690.9489</v>
       </c>
       <c r="M17">
-        <v>0.0953</v>
+        <v>0.1999</v>
       </c>
       <c r="N17">
-        <v>808.8188</v>
+        <v>68.0538</v>
       </c>
       <c r="O17">
-        <v>0.6802</v>
+        <v>0.856</v>
       </c>
       <c r="P17">
-        <v>855.3299</v>
+        <v>29.5774</v>
       </c>
       <c r="Q17">
-        <v>0.653</v>
+        <v>0.9103</v>
       </c>
       <c r="R17">
-        <v>855.2383</v>
+        <v>29.4912</v>
       </c>
       <c r="S17">
-        <v>0.6531</v>
+        <v>0.9104</v>
       </c>
       <c r="T17">
-        <v>3403.5663</v>
+        <v>975.1301</v>
       </c>
       <c r="U17">
-        <v>0.3388</v>
+        <v>0.253</v>
       </c>
       <c r="V17">
-        <v>4104.2484</v>
+        <v>68.6824</v>
       </c>
       <c r="W17">
-        <v>0.1681</v>
+        <v>0.8218</v>
       </c>
       <c r="X17">
-        <v>4099.845</v>
+        <v>70.4837</v>
       </c>
       <c r="Y17">
-        <v>0.1687</v>
+        <v>0.8158</v>
       </c>
       <c r="Z17">
-        <v>6046.6161</v>
+        <v>2993.4912</v>
       </c>
       <c r="AA17">
-        <v>0.3842</v>
+        <v>0.0723</v>
       </c>
       <c r="AB17">
-        <v>7918.2573</v>
+        <v>202.7026</v>
       </c>
       <c r="AC17">
-        <v>0.0653</v>
+        <v>0.5557</v>
       </c>
       <c r="AD17">
-        <v>7873.3524</v>
+        <v>248.0878</v>
       </c>
       <c r="AE17">
-        <v>0.0711</v>
+        <v>0.5061</v>
       </c>
       <c r="AF17">
-        <v>1233.5743</v>
+        <v>162.8095</v>
       </c>
       <c r="AG17">
-        <v>0.2652</v>
+        <v>0.4429</v>
       </c>
       <c r="AH17">
-        <v>4775.1829</v>
+        <v>566.7336</v>
       </c>
       <c r="AI17">
-        <v>0.2354</v>
+        <v>0.2191</v>
       </c>
       <c r="AJ17">
-        <v>686.7039</v>
+        <v>109.4855</v>
       </c>
       <c r="AK17">
-        <v>0.4623</v>
+        <v>0.5163</v>
       </c>
       <c r="AL17">
-        <v>3206.2882</v>
+        <v>419.6453</v>
       </c>
       <c r="AM17">
-        <v>0.2549</v>
+        <v>0.2492</v>
       </c>
       <c r="AN17">
-        <v>6285.9948</v>
+        <v>872.186</v>
       </c>
       <c r="AO17">
-        <v>0.2308</v>
+        <v>0.1438</v>
       </c>
       <c r="AP17">
-        <v>1584.5979</v>
+        <v>164.2944</v>
       </c>
       <c r="AQ17">
-        <v>0.0856</v>
+        <v>0.3929</v>
       </c>
       <c r="AR17">
-        <v>6199.2716</v>
+        <v>640.1624</v>
       </c>
       <c r="AS17">
-        <v>0.0598</v>
+        <v>0.217</v>
       </c>
       <c r="AT17">
-        <v>888.4698</v>
+        <v>59.4414</v>
       </c>
       <c r="AU17">
-        <v>0.4136</v>
+        <v>0.6643</v>
       </c>
       <c r="AV17">
-        <v>4180.22</v>
+        <v>66.69929999999999</v>
       </c>
       <c r="AW17">
-        <v>0.121</v>
+        <v>0.7319</v>
       </c>
       <c r="AX17">
-        <v>8293.7199</v>
+        <v>208.6241</v>
       </c>
       <c r="AY17">
-        <v>0.0285</v>
+        <v>0.6212</v>
       </c>
     </row>
     <row r="18" spans="1:51">
@@ -2634,154 +2634,154 @@
         <v>25</v>
       </c>
       <c r="B18">
-        <v>973.0998</v>
+        <v>729.6781</v>
       </c>
       <c r="C18">
-        <v>0.5734</v>
+        <v>0.275</v>
       </c>
       <c r="D18">
-        <v>1458.3336</v>
+        <v>278.0043</v>
       </c>
       <c r="E18">
-        <v>0.1705</v>
+        <v>0.4108</v>
       </c>
       <c r="F18">
-        <v>1453.1126</v>
+        <v>284.9497</v>
       </c>
       <c r="G18">
-        <v>0.177</v>
+        <v>0.4061</v>
       </c>
       <c r="H18">
-        <v>3647.0905</v>
+        <v>3066.2515</v>
       </c>
       <c r="I18">
-        <v>0.5499000000000001</v>
+        <v>0.0919</v>
       </c>
       <c r="J18">
-        <v>5470.8428</v>
+        <v>605.3333</v>
       </c>
       <c r="K18">
-        <v>0.0927</v>
+        <v>0.2567</v>
       </c>
       <c r="L18">
-        <v>5502.1747</v>
+        <v>727.7767</v>
       </c>
       <c r="M18">
-        <v>0.1034</v>
+        <v>0.2239</v>
       </c>
       <c r="N18">
-        <v>862.1678000000001</v>
+        <v>96.855</v>
       </c>
       <c r="O18">
-        <v>0.6656</v>
+        <v>0.8285</v>
       </c>
       <c r="P18">
-        <v>939.4594</v>
+        <v>85.065</v>
       </c>
       <c r="Q18">
-        <v>0.6075</v>
+        <v>0.8315</v>
       </c>
       <c r="R18">
-        <v>937.7654</v>
+        <v>83.2512</v>
       </c>
       <c r="S18">
-        <v>0.6086</v>
+        <v>0.8331</v>
       </c>
       <c r="T18">
-        <v>3525.7748</v>
+        <v>1033.14</v>
       </c>
       <c r="U18">
-        <v>0.3508</v>
+        <v>0.3028</v>
       </c>
       <c r="V18">
-        <v>4279.8002</v>
+        <v>133.6217</v>
       </c>
       <c r="W18">
-        <v>0.1695</v>
+        <v>0.7416</v>
       </c>
       <c r="X18">
-        <v>4273.3735</v>
+        <v>133.577</v>
       </c>
       <c r="Y18">
-        <v>0.1709</v>
+        <v>0.7387</v>
       </c>
       <c r="Z18">
-        <v>6159.3545</v>
+        <v>3147.0975</v>
       </c>
       <c r="AA18">
-        <v>0.3904</v>
+        <v>0.1029</v>
       </c>
       <c r="AB18">
-        <v>8172.3555</v>
+        <v>293.8859</v>
       </c>
       <c r="AC18">
-        <v>0.0698</v>
+        <v>0.5062</v>
       </c>
       <c r="AD18">
-        <v>8119.2303</v>
+        <v>340.0092</v>
       </c>
       <c r="AE18">
-        <v>0.0762</v>
+        <v>0.4706</v>
       </c>
       <c r="AF18">
-        <v>1150.2203</v>
+        <v>196.2345</v>
       </c>
       <c r="AG18">
-        <v>0.2942</v>
+        <v>0.4842</v>
       </c>
       <c r="AH18">
-        <v>4419.8641</v>
+        <v>594.7095</v>
       </c>
       <c r="AI18">
-        <v>0.2417</v>
+        <v>0.2634</v>
       </c>
       <c r="AJ18">
-        <v>754.4679</v>
+        <v>160.9007</v>
       </c>
       <c r="AK18">
-        <v>0.4852</v>
+        <v>0.537</v>
       </c>
       <c r="AL18">
-        <v>3321.0734</v>
+        <v>509.1452</v>
       </c>
       <c r="AM18">
-        <v>0.2651</v>
+        <v>0.2851</v>
       </c>
       <c r="AN18">
-        <v>6414.2119</v>
+        <v>1064.3872</v>
       </c>
       <c r="AO18">
-        <v>0.232</v>
+        <v>0.1585</v>
       </c>
       <c r="AP18">
-        <v>1502.3575</v>
+        <v>238.0425</v>
       </c>
       <c r="AQ18">
-        <v>0.1171</v>
+        <v>0.4219</v>
       </c>
       <c r="AR18">
-        <v>5761.173</v>
+        <v>667.7738000000001</v>
       </c>
       <c r="AS18">
-        <v>0.06710000000000001</v>
+        <v>0.2342</v>
       </c>
       <c r="AT18">
-        <v>995.9726000000001</v>
+        <v>143.0761</v>
       </c>
       <c r="AU18">
-        <v>0.4101</v>
+        <v>0.6061</v>
       </c>
       <c r="AV18">
-        <v>4362.6855</v>
+        <v>156.4454</v>
       </c>
       <c r="AW18">
-        <v>0.115</v>
+        <v>0.6217</v>
       </c>
       <c r="AX18">
-        <v>8570.866900000001</v>
+        <v>322.8773</v>
       </c>
       <c r="AY18">
-        <v>0.0345</v>
+        <v>0.5411</v>
       </c>
     </row>
     <row r="19" spans="1:51">
@@ -2789,154 +2789,154 @@
         <v>26</v>
       </c>
       <c r="B19">
-        <v>964.1675</v>
+        <v>744.4134</v>
       </c>
       <c r="C19">
-        <v>0.6001</v>
+        <v>0.3703</v>
       </c>
       <c r="D19">
-        <v>1479.1293</v>
+        <v>331.9847</v>
       </c>
       <c r="E19">
-        <v>0.2139</v>
+        <v>0.49</v>
       </c>
       <c r="F19">
-        <v>1469.5079</v>
+        <v>338.0276</v>
       </c>
       <c r="G19">
-        <v>0.2225</v>
+        <v>0.4875</v>
       </c>
       <c r="H19">
-        <v>3636.8229</v>
+        <v>3092.5318</v>
       </c>
       <c r="I19">
-        <v>0.5599</v>
+        <v>0.14</v>
       </c>
       <c r="J19">
-        <v>5515.9726</v>
+        <v>670.448</v>
       </c>
       <c r="K19">
-        <v>0.1031</v>
+        <v>0.3206</v>
       </c>
       <c r="L19">
-        <v>5541.6367</v>
+        <v>792.1631</v>
       </c>
       <c r="M19">
-        <v>0.1158</v>
+        <v>0.2894</v>
       </c>
       <c r="N19">
-        <v>845.4558</v>
+        <v>99.9746</v>
       </c>
       <c r="O19">
-        <v>0.6962</v>
+        <v>0.8757</v>
       </c>
       <c r="P19">
-        <v>936.7014</v>
+        <v>110.2689</v>
       </c>
       <c r="Q19">
-        <v>0.6321</v>
+        <v>0.8642</v>
       </c>
       <c r="R19">
-        <v>933.6494</v>
+        <v>107.0126</v>
       </c>
       <c r="S19">
-        <v>0.6341</v>
+        <v>0.8669</v>
       </c>
       <c r="T19">
-        <v>3483.0754</v>
+        <v>1030.5377</v>
       </c>
       <c r="U19">
-        <v>0.373</v>
+        <v>0.3806</v>
       </c>
       <c r="V19">
-        <v>4236.1822</v>
+        <v>169.7354</v>
       </c>
       <c r="W19">
-        <v>0.188</v>
+        <v>0.7886</v>
       </c>
       <c r="X19">
-        <v>4230.6714</v>
+        <v>167.9562</v>
       </c>
       <c r="Y19">
-        <v>0.1897</v>
+        <v>0.7883</v>
       </c>
       <c r="Z19">
-        <v>6099.1967</v>
+        <v>3108.8856</v>
       </c>
       <c r="AA19">
-        <v>0.3983</v>
+        <v>0.15</v>
       </c>
       <c r="AB19">
-        <v>8024.922</v>
+        <v>351.9121</v>
       </c>
       <c r="AC19">
-        <v>0.079</v>
+        <v>0.5744</v>
       </c>
       <c r="AD19">
-        <v>7984.6584</v>
+        <v>389.0126</v>
       </c>
       <c r="AE19">
-        <v>0.0853</v>
+        <v>0.5465</v>
       </c>
       <c r="AF19">
-        <v>1167.4878</v>
+        <v>224.0936</v>
       </c>
       <c r="AG19">
-        <v>0.3268</v>
+        <v>0.5757</v>
       </c>
       <c r="AH19">
-        <v>4448.5752</v>
+        <v>616.6608</v>
       </c>
       <c r="AI19">
-        <v>0.2519</v>
+        <v>0.3497</v>
       </c>
       <c r="AJ19">
-        <v>764.4272</v>
+        <v>189.9787</v>
       </c>
       <c r="AK19">
-        <v>0.5185999999999999</v>
+        <v>0.6194</v>
       </c>
       <c r="AL19">
-        <v>3313.121</v>
+        <v>535.7567</v>
       </c>
       <c r="AM19">
-        <v>0.2813</v>
+        <v>0.3631</v>
       </c>
       <c r="AN19">
-        <v>6365.9321</v>
+        <v>1040.5747</v>
       </c>
       <c r="AO19">
-        <v>0.2369</v>
+        <v>0.2169</v>
       </c>
       <c r="AP19">
-        <v>1544.3741</v>
+        <v>296.333</v>
       </c>
       <c r="AQ19">
-        <v>0.1492</v>
+        <v>0.4851</v>
       </c>
       <c r="AR19">
-        <v>5782.3258</v>
+        <v>714.0058</v>
       </c>
       <c r="AS19">
-        <v>0.0774</v>
+        <v>0.3091</v>
       </c>
       <c r="AT19">
-        <v>1011.789</v>
+        <v>188.1149</v>
       </c>
       <c r="AU19">
-        <v>0.4392</v>
+        <v>0.6559</v>
       </c>
       <c r="AV19">
-        <v>4332.5632</v>
+        <v>216.1487</v>
       </c>
       <c r="AW19">
-        <v>0.1388</v>
+        <v>0.6758999999999999</v>
       </c>
       <c r="AX19">
-        <v>8415.039500000001</v>
+        <v>413.368</v>
       </c>
       <c r="AY19">
-        <v>0.0447</v>
+        <v>0.5726</v>
       </c>
     </row>
     <row r="20" spans="1:51">
@@ -2944,154 +2944,154 @@
         <v>27</v>
       </c>
       <c r="B20">
-        <v>965.9983999999999</v>
+        <v>744.7588</v>
       </c>
       <c r="C20">
-        <v>0.5966</v>
+        <v>0.3845</v>
       </c>
       <c r="D20">
-        <v>1477.6627</v>
+        <v>340.8434</v>
       </c>
       <c r="E20">
-        <v>0.2101</v>
+        <v>0.4885</v>
       </c>
       <c r="F20">
-        <v>1468.6333</v>
+        <v>347.3477</v>
       </c>
       <c r="G20">
-        <v>0.2188</v>
+        <v>0.4865</v>
       </c>
       <c r="H20">
-        <v>3614.3294</v>
+        <v>3100.3185</v>
       </c>
       <c r="I20">
-        <v>0.5611</v>
+        <v>0.1398</v>
       </c>
       <c r="J20">
-        <v>5505.0636</v>
+        <v>680.934</v>
       </c>
       <c r="K20">
-        <v>0.1013</v>
+        <v>0.3156</v>
       </c>
       <c r="L20">
-        <v>5531.6355</v>
+        <v>802.6831</v>
       </c>
       <c r="M20">
-        <v>0.1139</v>
+        <v>0.2861</v>
       </c>
       <c r="N20">
-        <v>854.1827</v>
+        <v>110.4242</v>
       </c>
       <c r="O20">
-        <v>0.6846</v>
+        <v>0.869</v>
       </c>
       <c r="P20">
-        <v>954.3852000000001</v>
+        <v>125.4876</v>
       </c>
       <c r="Q20">
-        <v>0.611</v>
+        <v>0.8448</v>
       </c>
       <c r="R20">
-        <v>951.6237</v>
+        <v>122.2824</v>
       </c>
       <c r="S20">
-        <v>0.613</v>
+        <v>0.8477</v>
       </c>
       <c r="T20">
-        <v>3446.4766</v>
+        <v>1029.5948</v>
       </c>
       <c r="U20">
-        <v>0.3727</v>
+        <v>0.3934</v>
       </c>
       <c r="V20">
-        <v>4190.8741</v>
+        <v>183.8542</v>
       </c>
       <c r="W20">
-        <v>0.1837</v>
+        <v>0.7719</v>
       </c>
       <c r="X20">
-        <v>4185.3941</v>
+        <v>182.0936</v>
       </c>
       <c r="Y20">
-        <v>0.1856</v>
+        <v>0.7725</v>
       </c>
       <c r="Z20">
-        <v>6067.4546</v>
+        <v>3097.2141</v>
       </c>
       <c r="AA20">
-        <v>0.3996</v>
+        <v>0.1529</v>
       </c>
       <c r="AB20">
-        <v>7979.7865</v>
+        <v>364.3591</v>
       </c>
       <c r="AC20">
-        <v>0.0779</v>
+        <v>0.5662</v>
       </c>
       <c r="AD20">
-        <v>7943.3226</v>
+        <v>400.2374</v>
       </c>
       <c r="AE20">
-        <v>0.08400000000000001</v>
+        <v>0.5417999999999999</v>
       </c>
       <c r="AF20">
-        <v>1163.6974</v>
+        <v>231.4527</v>
       </c>
       <c r="AG20">
-        <v>0.3287</v>
+        <v>0.5963000000000001</v>
       </c>
       <c r="AH20">
-        <v>4433.7152</v>
+        <v>622.6115</v>
       </c>
       <c r="AI20">
-        <v>0.2511</v>
+        <v>0.355</v>
       </c>
       <c r="AJ20">
-        <v>774.5264</v>
+        <v>198.0526</v>
       </c>
       <c r="AK20">
-        <v>0.5248</v>
+        <v>0.6316000000000001</v>
       </c>
       <c r="AL20">
-        <v>3284.1874</v>
+        <v>529.6917</v>
       </c>
       <c r="AM20">
-        <v>0.2817</v>
+        <v>0.3753</v>
       </c>
       <c r="AN20">
-        <v>6348.4477</v>
+        <v>1012.4623</v>
       </c>
       <c r="AO20">
-        <v>0.2365</v>
+        <v>0.2176</v>
       </c>
       <c r="AP20">
-        <v>1546.2962</v>
+        <v>312.7935</v>
       </c>
       <c r="AQ20">
-        <v>0.1493</v>
+        <v>0.4876</v>
       </c>
       <c r="AR20">
-        <v>5775.1714</v>
+        <v>736.6273</v>
       </c>
       <c r="AS20">
-        <v>0.0746</v>
+        <v>0.2978</v>
       </c>
       <c r="AT20">
-        <v>1035.1032</v>
+        <v>210.2457</v>
       </c>
       <c r="AU20">
-        <v>0.4345</v>
+        <v>0.6515</v>
       </c>
       <c r="AV20">
-        <v>4285.9667</v>
+        <v>235.4861</v>
       </c>
       <c r="AW20">
-        <v>0.1351</v>
+        <v>0.6566</v>
       </c>
       <c r="AX20">
-        <v>8349.0218</v>
+        <v>434.4982</v>
       </c>
       <c r="AY20">
-        <v>0.0438</v>
+        <v>0.5533</v>
       </c>
     </row>
   </sheetData>
